--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetDarts_1_EmptyMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetDarts_1_EmptyMarketsList.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>15          3908982  This game has no available Markets:  Start time = 2022-12-10T04:00:00</t>
+    <t>15          4072092  This game has no available Markets:  Start time = 2024-12-07T16:00:00</t>
   </si>
 </sst>
 </file>
